--- a/data/teacher/Joel Lima.xlsx
+++ b/data/teacher/Joel Lima.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Tec. Fundição']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3B-Tec. Fundição']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Fundição', -]</t>
+          <t>[-, 'MCT-1A-Tecnologia dos Materiais']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Fundição', -]</t>
+          <t>[-, 'MCT-1A-Tecnologia dos Materiais']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['MCT-1A-Tecnologia dos Materiais', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Tec. Fundição', -, -, -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Fundição', -]</t>
+          <t>[-, 'MCT-1A-Tecnologia dos Materiais']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['MCT-1A-Tecnologia dos Materiais', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3B-Tec. Fundição', -]</t>
+          <t>[-, 'MCT-1A-Tecnologia dos Materiais']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['MCT-1A-Tecnologia dos Materiais', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-3B-Tec. Fundição', -, -, -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['MCT-1A-Tecnologia dos Materiais', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-Tec. Fundição']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Fundição', -]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-Tec. Fundição']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Fundição', -]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-Tec. Fundição']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Fundição', -]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-Tec. Fundição']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-3A-Tec. Fundição', -]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/data/teacher/Joel Lima.xlsx
+++ b/data/teacher/Joel Lima.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Tec. Fundição']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3B-Tec. Fundição']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, 'MCT-1A-Tecnologia dos Materiais']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -542,17 +542,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Fundição</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, 'MCT-1A-Tecnologia dos Materiais']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Fundição</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['MEC-3B-Tec. Fundição', -, -, -]</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, 'MCT-1A-Tecnologia dos Materiais']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -638,17 +638,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Fundição</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, 'MCT-1A-Tecnologia dos Materiais']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -670,17 +670,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Fundição</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['MEC-3B-Tec. Fundição', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Fundição', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Fundição', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Fundição', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Tec. Fundição', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/teacher/Joel Lima.xlsx
+++ b/data/teacher/Joel Lima.xlsx
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>MEC-3B-Tec. Fundição</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>MEC-3B-Tec. Fundição</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>MEC-3B-Tec. Fundição</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>MEC-3B-Tec. Fundição</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>MEC-3A-Tec. Fundição</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>MEC-3A-Tec. Fundição</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Joel Lima.xlsx
+++ b/data/teacher/Joel Lima.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Fundição</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Fundição</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Fundição</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Fundição</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,19 +665,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>-</t>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Joel Lima.xlsx
+++ b/data/teacher/Joel Lima.xlsx
@@ -483,17 +483,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Fundição</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3B-Tec. Fundição</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,17 +542,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MEC-3B-Tec. Fundição</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEC-3B-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MCT-1A-Tecnologia dos Materiais</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MCT-1A-Tecnologia dos Materiais</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Tec. Fundição</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MEC-3A-Tec. Fundição</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
